--- a/rosters/2023/New Orleans/New Orleans.xlsx
+++ b/rosters/2023/New Orleans/New Orleans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -49,36 +49,33 @@
     <t>Jonas Valančiūnas</t>
   </si>
   <si>
-    <t>Devonte' Graham</t>
-  </si>
-  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
     <t>Naji Marshall</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
-    <t>Larry Nance Jr.</t>
+    <t>Jaxson Hayes</t>
   </si>
   <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
     <t>Willy Hernangómez</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
     <t>Dereon Seabron (TW)</t>
   </si>
   <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
     <t>E.J. Liddell (TW)</t>
   </si>
   <si>
@@ -115,63 +115,60 @@
     <t>6-11</t>
   </si>
   <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-0</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>May 6, 1992</t>
   </si>
   <si>
-    <t>February 22, 1995</t>
-  </si>
-  <si>
     <t>April 12, 1998</t>
   </si>
   <si>
+    <t>June 18, 2000</t>
+  </si>
+  <si>
     <t>January 24, 1998</t>
   </si>
   <si>
-    <t>June 18, 2000</t>
-  </si>
-  <si>
     <t>September 19, 1991</t>
   </si>
   <si>
+    <t>January 1, 1993</t>
+  </si>
+  <si>
+    <t>October 6, 1998</t>
+  </si>
+  <si>
     <t>March 17, 2003</t>
   </si>
   <si>
-    <t>January 1, 1993</t>
+    <t>May 23, 2000</t>
   </si>
   <si>
     <t>July 6, 2000</t>
   </si>
   <si>
-    <t>October 6, 1998</t>
-  </si>
-  <si>
-    <t>May 23, 2000</t>
-  </si>
-  <si>
     <t>May 27, 1994</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
     <t>May 26, 2000</t>
   </si>
   <si>
+    <t>September 15, 1993</t>
+  </si>
+  <si>
     <t>December 18, 2000</t>
   </si>
   <si>
@@ -205,9 +205,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -217,12 +214,12 @@
     <t>9</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -232,75 +229,72 @@
     <t>12</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
+    <t>Rice University, Virginia</t>
+  </si>
+  <si>
     <t>Xavier</t>
   </si>
   <si>
-    <t>Rice University, Virginia</t>
-  </si>
-  <si>
     <t>Lehigh</t>
   </si>
   <si>
     <t>Wyoming</t>
   </si>
   <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>LSU</t>
   </si>
   <si>
     <t>NC State</t>
   </si>
   <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
     <t>Ohio State</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/v/valanjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/grahade01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/a/alvarjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/murphtr02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/marshna01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/murphtr02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mccolcj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/nancela02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/joneshe01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/daniedy01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/nancela02.html</t>
+    <t>https://www.basketball-reference.com/players/h/hayesja02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/willizi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/joneshe01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hayesja02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/hernawi01.html</t>
   </si>
   <si>
@@ -314,6 +308,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/seabrde01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/richajo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/liddeej01.html</t>
@@ -754,7 +751,7 @@
         <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -762,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -774,7 +771,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -786,10 +783,10 @@
         <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -797,19 +794,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -818,13 +815,13 @@
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -853,13 +850,13 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -867,19 +864,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -888,13 +885,13 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,19 +899,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -926,10 +923,10 @@
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,31 +934,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -969,34 +969,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1004,19 +1001,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -1025,13 +1022,13 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,19 +1036,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -1063,10 +1060,10 @@
         <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1074,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1086,22 +1083,19 @@
         <v>32</v>
       </c>
       <c r="F12">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
       </c>
-      <c r="J12" t="s">
-        <v>80</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1109,31 +1103,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1141,19 +1138,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
@@ -1165,10 +1162,10 @@
         <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1176,19 +1173,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1197,13 +1194,13 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1211,19 +1208,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1232,22 +1229,19 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1255,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -1267,13 +1261,13 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1302,10 +1296,10 @@
         <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/New Orleans/New Orleans.xlsx
+++ b/rosters/2023/New Orleans/New Orleans.xlsx
@@ -49,63 +49,63 @@
     <t>Jonas Valančiūnas</t>
   </si>
   <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Naji Marshall</t>
+  </si>
+  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Naji Marshall</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
     <t>Larry Nance Jr.</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
     <t>Jaxson Hayes</t>
   </si>
   <si>
+    <t>Willy Hernangómez</t>
+  </si>
+  <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
-    <t>Willy Hernangómez</t>
-  </si>
-  <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
     <t>Garrett Temple</t>
   </si>
   <si>
     <t>Kira Lewis Jr.</t>
   </si>
   <si>
+    <t>Josh Richardson</t>
+  </si>
+  <si>
     <t>Dereon Seabron (TW)</t>
   </si>
   <si>
-    <t>Josh Richardson</t>
-  </si>
-  <si>
     <t>E.J. Liddell (TW)</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -115,15 +115,15 @@
     <t>6-11</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-0</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>6-3</t>
   </si>
   <si>
@@ -142,51 +142,51 @@
     <t>May 6, 1992</t>
   </si>
   <si>
+    <t>June 18, 2000</t>
+  </si>
+  <si>
+    <t>January 24, 1998</t>
+  </si>
+  <si>
     <t>April 12, 1998</t>
   </si>
   <si>
-    <t>June 18, 2000</t>
-  </si>
-  <si>
-    <t>January 24, 1998</t>
-  </si>
-  <si>
     <t>September 19, 1991</t>
   </si>
   <si>
+    <t>October 6, 1998</t>
+  </si>
+  <si>
     <t>January 1, 1993</t>
   </si>
   <si>
-    <t>October 6, 1998</t>
-  </si>
-  <si>
     <t>March 17, 2003</t>
   </si>
   <si>
     <t>May 23, 2000</t>
   </si>
   <si>
+    <t>May 27, 1994</t>
+  </si>
+  <si>
+    <t>September 2, 1997</t>
+  </si>
+  <si>
     <t>July 6, 2000</t>
   </si>
   <si>
-    <t>May 27, 1994</t>
-  </si>
-  <si>
-    <t>September 2, 1997</t>
-  </si>
-  <si>
     <t>May 8, 1986</t>
   </si>
   <si>
     <t>April 6, 2001</t>
   </si>
   <si>
+    <t>September 15, 1993</t>
+  </si>
+  <si>
     <t>May 26, 2000</t>
   </si>
   <si>
-    <t>September 15, 1993</t>
-  </si>
-  <si>
     <t>December 18, 2000</t>
   </si>
   <si>
@@ -229,24 +229,24 @@
     <t>12</t>
   </si>
   <si>
+    <t>Rice University, Virginia</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Rice University, Virginia</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
     <t>Lehigh</t>
   </si>
   <si>
+    <t>Alabama</t>
+  </si>
+  <si>
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -256,61 +256,61 @@
     <t>LSU</t>
   </si>
   <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
     <t>NC State</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Ohio State</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/v/valanjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/murphtr02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/marshna01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/alvarjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/murphtr02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/marshna01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mccolcj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/joneshe01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nancela02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/joneshe01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/daniedy01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hayesja02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hernawi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/i/ingrabr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/willizi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hernawi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/i/ingrabr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/templga01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/lewiski01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/richajo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/seabrde01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/richajo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/liddeej01.html</t>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -771,7 +771,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -794,19 +794,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
         <v>72</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -841,7 +841,7 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -850,7 +850,7 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>73</v>
@@ -899,19 +899,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -920,7 +920,7 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
         <v>75</v>
@@ -934,19 +934,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -955,7 +955,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -975,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1036,31 +1036,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>92</v>
@@ -1071,28 +1068,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>93</v>
@@ -1103,19 +1103,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1124,7 +1124,7 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -1179,7 +1179,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -1197,7 +1197,7 @@
         <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>96</v>
@@ -1208,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1217,10 +1217,10 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1229,7 +1229,7 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
         <v>80</v>
@@ -1242,6 +1242,9 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1249,10 +1252,10 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -1261,7 +1264,7 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
         <v>81</v>
@@ -1281,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>240</v>

--- a/rosters/2023/New Orleans/New Orleans.xlsx
+++ b/rosters/2023/New Orleans/New Orleans.xlsx
@@ -55,12 +55,12 @@
     <t>Naji Marshall</t>
   </si>
   <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>Herbert Jones</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Zion Williamson</t>
   </si>
   <si>
+    <t>Kira Lewis Jr.</t>
+  </si>
+  <si>
     <t>Garrett Temple</t>
   </si>
   <si>
-    <t>Kira Lewis Jr.</t>
-  </si>
-  <si>
     <t>Josh Richardson</t>
   </si>
   <si>
@@ -103,12 +103,12 @@
     <t>SF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -121,24 +121,24 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-0</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>6-6</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
     <t>May 6, 1992</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>January 24, 1998</t>
   </si>
   <si>
+    <t>September 19, 1991</t>
+  </si>
+  <si>
     <t>April 12, 1998</t>
   </si>
   <si>
-    <t>September 19, 1991</t>
-  </si>
-  <si>
     <t>October 6, 1998</t>
   </si>
   <si>
@@ -175,12 +175,12 @@
     <t>July 6, 2000</t>
   </si>
   <si>
+    <t>April 6, 2001</t>
+  </si>
+  <si>
     <t>May 8, 1986</t>
   </si>
   <si>
-    <t>April 6, 2001</t>
-  </si>
-  <si>
     <t>September 15, 1993</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>Xavier</t>
   </si>
   <si>
+    <t>Lehigh</t>
+  </si>
+  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Lehigh</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>https://www.basketball-reference.com/players/m/marshna01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mccolcj01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/alvarjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mccolcj01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/joneshe01.html</t>
   </si>
   <si>
@@ -301,10 +301,10 @@
     <t>https://www.basketball-reference.com/players/w/willizi01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/lewiski01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/templga01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/lewiski01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/richajo01.html</t>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -841,7 +841,7 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -850,7 +850,7 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
         <v>73</v>
@@ -864,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -876,7 +876,7 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -885,7 +885,7 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
         <v>74</v>
@@ -975,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1138,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1150,7 +1150,7 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
@@ -1159,10 +1159,10 @@
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>95</v>
@@ -1173,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -1185,7 +1185,7 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1194,10 +1194,10 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>96</v>
@@ -1214,10 +1214,10 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -1249,7 +1249,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>

--- a/rosters/2023/New Orleans/New Orleans.xlsx
+++ b/rosters/2023/New Orleans/New Orleans.xlsx
@@ -73,12 +73,12 @@
     <t>Jaxson Hayes</t>
   </si>
   <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
     <t>Willy Hernangómez</t>
   </si>
   <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
     <t>Zion Williamson</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>May 23, 2000</t>
   </si>
   <si>
+    <t>September 2, 1997</t>
+  </si>
+  <si>
     <t>May 27, 1994</t>
   </si>
   <si>
-    <t>September 2, 1997</t>
-  </si>
-  <si>
     <t>July 6, 2000</t>
   </si>
   <si>
@@ -292,10 +292,10 @@
     <t>https://www.basketball-reference.com/players/h/hayesja02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/i/ingrabr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hernawi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/i/ingrabr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/willizi01.html</t>
@@ -1036,28 +1036,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>92</v>
@@ -1068,31 +1071,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
         <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>93</v>

--- a/rosters/2023/New Orleans/New Orleans.xlsx
+++ b/rosters/2023/New Orleans/New Orleans.xlsx
@@ -46,27 +46,27 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
     <t>Jonas Valančiūnas</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>Naji Marshall</t>
   </si>
   <si>
     <t>CJ McCollum</t>
   </si>
   <si>
+    <t>Herbert Jones</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
     <t>Jose Alvarado</t>
   </si>
   <si>
-    <t>Herbert Jones</t>
-  </si>
-  <si>
-    <t>Larry Nance Jr.</t>
-  </si>
-  <si>
     <t>Dyson Daniels</t>
   </si>
   <si>
@@ -97,39 +97,39 @@
     <t>E.J. Liddell (TW)</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PF</t>
+    <t>6-9</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
     <t>6-3</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-0</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-6</t>
   </si>
   <si>
@@ -139,27 +139,27 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>June 18, 2000</t>
+  </si>
+  <si>
     <t>May 6, 1992</t>
   </si>
   <si>
-    <t>June 18, 2000</t>
-  </si>
-  <si>
     <t>January 24, 1998</t>
   </si>
   <si>
     <t>September 19, 1991</t>
   </si>
   <si>
+    <t>October 6, 1998</t>
+  </si>
+  <si>
+    <t>January 1, 1993</t>
+  </si>
+  <si>
     <t>April 12, 1998</t>
   </si>
   <si>
-    <t>October 6, 1998</t>
-  </si>
-  <si>
-    <t>January 1, 1993</t>
-  </si>
-  <si>
     <t>March 17, 2003</t>
   </si>
   <si>
@@ -190,24 +190,24 @@
     <t>December 18, 2000</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>lt</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>au</t>
   </si>
   <si>
     <t>es</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -238,15 +238,15 @@
     <t>Lehigh</t>
   </si>
   <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -265,25 +265,25 @@
     <t>Ohio State</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/murphtr02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/v/valanjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/murphtr02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/marshna01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mccolcj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/joneshe01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/n/nancela02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/alvarjo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/joneshe01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/n/nancela02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/daniedy01.html</t>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -739,7 +739,7 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -749,6 +749,9 @@
       </c>
       <c r="I2" t="s">
         <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>83</v>
@@ -759,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -771,7 +774,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -781,9 +784,6 @@
       </c>
       <c r="I3" t="s">
         <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>84</v>
@@ -800,7 +800,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -812,7 +812,7 @@
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
@@ -847,7 +847,7 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
@@ -864,28 +864,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
         <v>74</v>
@@ -899,28 +899,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
         <v>75</v>
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -943,19 +943,19 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -975,10 +975,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>199</v>
@@ -1007,10 +1007,10 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>220</v>
@@ -1019,7 +1019,7 @@
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
         <v>68</v>
@@ -1042,10 +1042,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>190</v>
@@ -1054,7 +1054,7 @@
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
@@ -1077,10 +1077,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>250</v>
@@ -1109,7 +1109,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1121,7 +1121,7 @@
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
         <v>64</v>
@@ -1144,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1156,13 +1156,13 @@
         <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
         <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>95</v>
@@ -1191,7 +1191,7 @@
         <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
         <v>70</v>
@@ -1226,7 +1226,7 @@
         <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
         <v>66</v>
@@ -1261,7 +1261,7 @@
         <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
         <v>67</v>
@@ -1281,7 +1281,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
@@ -1293,7 +1293,7 @@
         <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
